--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Cd6-Alcam.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Cd6-Alcam.xlsx
@@ -546,43 +546,43 @@
         <v>0.017595</v>
       </c>
       <c r="H2">
-        <v>0.05278500000000001</v>
+        <v>0.052785</v>
       </c>
       <c r="I2">
-        <v>0.01944639393453766</v>
+        <v>0.02880893592774762</v>
       </c>
       <c r="J2">
-        <v>0.01944639393453766</v>
+        <v>0.02880893592774761</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.1518936666666667</v>
+        <v>0.8181043333333333</v>
       </c>
       <c r="N2">
-        <v>0.4556810000000001</v>
+        <v>2.454313</v>
       </c>
       <c r="O2">
-        <v>0.0008633602951388269</v>
+        <v>0.003510462371845219</v>
       </c>
       <c r="P2">
-        <v>0.0008633602951388268</v>
+        <v>0.003510462371845219</v>
       </c>
       <c r="Q2">
-        <v>0.002672569065000001</v>
+        <v>0.014394545745</v>
       </c>
       <c r="R2">
-        <v>0.02405312158500001</v>
+        <v>0.129550911705</v>
       </c>
       <c r="S2">
-        <v>1.678924440670833E-05</v>
+        <v>0.0001011326855472578</v>
       </c>
       <c r="T2">
-        <v>1.678924440670832E-05</v>
+        <v>0.0001011326855472578</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -608,13 +608,13 @@
         <v>0.017595</v>
       </c>
       <c r="H3">
-        <v>0.05278500000000001</v>
+        <v>0.052785</v>
       </c>
       <c r="I3">
-        <v>0.01944639393453766</v>
+        <v>0.02880893592774762</v>
       </c>
       <c r="J3">
-        <v>0.01944639393453766</v>
+        <v>0.02880893592774761</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>6.883193</v>
       </c>
       <c r="O3">
-        <v>0.01304130639631125</v>
+        <v>0.00984519497906274</v>
       </c>
       <c r="P3">
-        <v>0.01304130639631125</v>
+        <v>0.00984519497906274</v>
       </c>
       <c r="Q3">
-        <v>0.04036992694500001</v>
+        <v>0.040369926945</v>
       </c>
       <c r="R3">
         <v>0.363329342505</v>
       </c>
       <c r="S3">
-        <v>0.0002536063816036743</v>
+        <v>0.000283629591348001</v>
       </c>
       <c r="T3">
-        <v>0.0002536063816036742</v>
+        <v>0.0002836295913480009</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -670,13 +670,13 @@
         <v>0.017595</v>
       </c>
       <c r="H4">
-        <v>0.05278500000000001</v>
+        <v>0.052785</v>
       </c>
       <c r="I4">
-        <v>0.01944639393453766</v>
+        <v>0.02880893592774762</v>
       </c>
       <c r="J4">
-        <v>0.01944639393453766</v>
+        <v>0.02880893592774761</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>36.15489266666666</v>
+        <v>75.03856666666667</v>
       </c>
       <c r="N4">
-        <v>108.464678</v>
+        <v>225.1157</v>
       </c>
       <c r="O4">
-        <v>0.2055036229516214</v>
+        <v>0.3219883503699801</v>
       </c>
       <c r="P4">
-        <v>0.2055036229516214</v>
+        <v>0.3219883503699801</v>
       </c>
       <c r="Q4">
-        <v>0.63614533647</v>
+        <v>1.3203035805</v>
       </c>
       <c r="R4">
-        <v>5.725308028230001</v>
+        <v>11.8827322245</v>
       </c>
       <c r="S4">
-        <v>0.003996304406891926</v>
+        <v>0.009276141755289907</v>
       </c>
       <c r="T4">
-        <v>0.003996304406891925</v>
+        <v>0.009276141755289903</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -732,13 +732,13 @@
         <v>0.017595</v>
       </c>
       <c r="H5">
-        <v>0.05278500000000001</v>
+        <v>0.052785</v>
       </c>
       <c r="I5">
-        <v>0.01944639393453766</v>
+        <v>0.02880893592774762</v>
       </c>
       <c r="J5">
-        <v>0.01944639393453766</v>
+        <v>0.02880893592774761</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.8966460000000001</v>
+        <v>1.172599333333333</v>
       </c>
       <c r="N5">
-        <v>2.689938</v>
+        <v>3.517798</v>
       </c>
       <c r="O5">
-        <v>0.005096516347148873</v>
+        <v>0.005031590310914854</v>
       </c>
       <c r="P5">
-        <v>0.005096516347148872</v>
+        <v>0.005031590310914854</v>
       </c>
       <c r="Q5">
-        <v>0.01577648637</v>
+        <v>0.02063188527</v>
       </c>
       <c r="R5">
-        <v>0.14198837733</v>
+        <v>0.18568696743</v>
       </c>
       <c r="S5">
-        <v>9.910886458046787E-05</v>
+        <v>0.0001449547628818217</v>
       </c>
       <c r="T5">
-        <v>9.910886458046785E-05</v>
+        <v>0.0001449547628818217</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -794,13 +794,13 @@
         <v>0.017595</v>
       </c>
       <c r="H6">
-        <v>0.05278500000000001</v>
+        <v>0.052785</v>
       </c>
       <c r="I6">
-        <v>0.01944639393453766</v>
+        <v>0.02880893592774762</v>
       </c>
       <c r="J6">
-        <v>0.01944639393453766</v>
+        <v>0.02880893592774761</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>112.663142</v>
+        <v>115.3317996666667</v>
       </c>
       <c r="N6">
-        <v>337.989426</v>
+        <v>345.995399</v>
       </c>
       <c r="O6">
-        <v>0.6403748468449697</v>
+        <v>0.4948854644949822</v>
       </c>
       <c r="P6">
-        <v>0.6403748468449696</v>
+        <v>0.4948854644949822</v>
       </c>
       <c r="Q6">
-        <v>1.98230798349</v>
+        <v>2.029263015135</v>
       </c>
       <c r="R6">
-        <v>17.84077185141</v>
+        <v>18.263367136215</v>
       </c>
       <c r="S6">
-        <v>0.0124529815375165</v>
+        <v>0.01425712363820956</v>
       </c>
       <c r="T6">
-        <v>0.0124529815375165</v>
+        <v>0.01425712363820955</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,13 +856,13 @@
         <v>0.017595</v>
       </c>
       <c r="H7">
-        <v>0.05278500000000001</v>
+        <v>0.052785</v>
       </c>
       <c r="I7">
-        <v>0.01944639393453766</v>
+        <v>0.02880893592774762</v>
       </c>
       <c r="J7">
-        <v>0.01944639393453766</v>
+        <v>0.02880893592774761</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>23.77214366666666</v>
+        <v>38.39199066666666</v>
       </c>
       <c r="N7">
-        <v>71.31643099999999</v>
+        <v>115.175972</v>
       </c>
       <c r="O7">
-        <v>0.13512034716481</v>
+        <v>0.1647389374732149</v>
       </c>
       <c r="P7">
-        <v>0.1351203471648099</v>
+        <v>0.1647389374732149</v>
       </c>
       <c r="Q7">
-        <v>0.4182708678150001</v>
+        <v>0.6755070757799999</v>
       </c>
       <c r="R7">
-        <v>3.764437810335</v>
+        <v>6.07956368202</v>
       </c>
       <c r="S7">
-        <v>0.002627603499538384</v>
+        <v>0.00474595349447107</v>
       </c>
       <c r="T7">
-        <v>0.002627603499538383</v>
+        <v>0.004745953494471069</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,46 +915,46 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.150426</v>
+        <v>0.06109166666666666</v>
       </c>
       <c r="H8">
-        <v>0.451278</v>
+        <v>0.183275</v>
       </c>
       <c r="I8">
-        <v>0.1662542343845843</v>
+        <v>0.1000276164091682</v>
       </c>
       <c r="J8">
-        <v>0.1662542343845843</v>
+        <v>0.1000276164091682</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>0.1518936666666667</v>
+        <v>0.8181043333333333</v>
       </c>
       <c r="N8">
-        <v>0.4556810000000001</v>
+        <v>2.454313</v>
       </c>
       <c r="O8">
-        <v>0.0008633602951388269</v>
+        <v>0.003510462371845219</v>
       </c>
       <c r="P8">
-        <v>0.0008633602951388268</v>
+        <v>0.003510462371845219</v>
       </c>
       <c r="Q8">
-        <v>0.022848756702</v>
+        <v>0.04997935723055555</v>
       </c>
       <c r="R8">
-        <v>0.205638810318</v>
+        <v>0.449814215075</v>
       </c>
       <c r="S8">
-        <v>0.0001435373048663544</v>
+        <v>0.0003511431835497524</v>
       </c>
       <c r="T8">
-        <v>0.0001435373048663544</v>
+        <v>0.0003511431835497524</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,16 +977,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.150426</v>
+        <v>0.06109166666666666</v>
       </c>
       <c r="H9">
-        <v>0.451278</v>
+        <v>0.183275</v>
       </c>
       <c r="I9">
-        <v>0.1662542343845843</v>
+        <v>0.1000276164091682</v>
       </c>
       <c r="J9">
-        <v>0.1662542343845843</v>
+        <v>0.1000276164091682</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,22 +1001,22 @@
         <v>6.883193</v>
       </c>
       <c r="O9">
-        <v>0.01304130639631125</v>
+        <v>0.00984519497906274</v>
       </c>
       <c r="P9">
-        <v>0.01304130639631125</v>
+        <v>0.00984519497906274</v>
       </c>
       <c r="Q9">
-        <v>0.345137063406</v>
+        <v>0.1401685774527778</v>
       </c>
       <c r="R9">
-        <v>3.106233570654</v>
+        <v>1.261517197075</v>
       </c>
       <c r="S9">
-        <v>0.00216817241029351</v>
+        <v>0.0009847913868391567</v>
       </c>
       <c r="T9">
-        <v>0.002168172410293509</v>
+        <v>0.0009847913868391565</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1039,16 +1039,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.150426</v>
+        <v>0.06109166666666666</v>
       </c>
       <c r="H10">
-        <v>0.451278</v>
+        <v>0.183275</v>
       </c>
       <c r="I10">
-        <v>0.1662542343845843</v>
+        <v>0.1000276164091682</v>
       </c>
       <c r="J10">
-        <v>0.1662542343845843</v>
+        <v>0.1000276164091682</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>36.15489266666666</v>
+        <v>75.03856666666667</v>
       </c>
       <c r="N10">
-        <v>108.464678</v>
+        <v>225.1157</v>
       </c>
       <c r="O10">
-        <v>0.2055036229516214</v>
+        <v>0.3219883503699801</v>
       </c>
       <c r="P10">
-        <v>0.2055036229516214</v>
+        <v>0.3219883503699801</v>
       </c>
       <c r="Q10">
-        <v>5.438635884275999</v>
+        <v>4.584231101944444</v>
       </c>
       <c r="R10">
-        <v>48.94772295848399</v>
+        <v>41.2580799175</v>
       </c>
       <c r="S10">
-        <v>0.03416584749708011</v>
+        <v>0.03220772719902922</v>
       </c>
       <c r="T10">
-        <v>0.03416584749708011</v>
+        <v>0.03220772719902922</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1101,16 +1101,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.150426</v>
+        <v>0.06109166666666666</v>
       </c>
       <c r="H11">
-        <v>0.451278</v>
+        <v>0.183275</v>
       </c>
       <c r="I11">
-        <v>0.1662542343845843</v>
+        <v>0.1000276164091682</v>
       </c>
       <c r="J11">
-        <v>0.1662542343845843</v>
+        <v>0.1000276164091682</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.8966460000000001</v>
+        <v>1.172599333333333</v>
       </c>
       <c r="N11">
-        <v>2.689938</v>
+        <v>3.517798</v>
       </c>
       <c r="O11">
-        <v>0.005096516347148873</v>
+        <v>0.005031590310914854</v>
       </c>
       <c r="P11">
-        <v>0.005096516347148872</v>
+        <v>0.005031590310914854</v>
       </c>
       <c r="Q11">
-        <v>0.134878871196</v>
+        <v>0.07163604760555554</v>
       </c>
       <c r="R11">
-        <v>1.213909840764</v>
+        <v>0.64472442845</v>
       </c>
       <c r="S11">
-        <v>0.0008473174233237543</v>
+        <v>0.0005032979855482785</v>
       </c>
       <c r="T11">
-        <v>0.0008473174233237542</v>
+        <v>0.0005032979855482784</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1163,16 +1163,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.150426</v>
+        <v>0.06109166666666666</v>
       </c>
       <c r="H12">
-        <v>0.451278</v>
+        <v>0.183275</v>
       </c>
       <c r="I12">
-        <v>0.1662542343845843</v>
+        <v>0.1000276164091682</v>
       </c>
       <c r="J12">
-        <v>0.1662542343845843</v>
+        <v>0.1000276164091682</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>112.663142</v>
+        <v>115.3317996666667</v>
       </c>
       <c r="N12">
-        <v>337.989426</v>
+        <v>345.995399</v>
       </c>
       <c r="O12">
-        <v>0.6403748468449697</v>
+        <v>0.4948854644949822</v>
       </c>
       <c r="P12">
-        <v>0.6403748468449696</v>
+        <v>0.4948854644949822</v>
       </c>
       <c r="Q12">
-        <v>16.947465798492</v>
+        <v>7.045811861302777</v>
       </c>
       <c r="R12">
-        <v>152.527192186428</v>
+        <v>63.412306751725</v>
       </c>
       <c r="S12">
-        <v>0.1064650298813559</v>
+        <v>0.04950221340897711</v>
       </c>
       <c r="T12">
-        <v>0.1064650298813559</v>
+        <v>0.04950221340897711</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1225,16 +1225,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.150426</v>
+        <v>0.06109166666666666</v>
       </c>
       <c r="H13">
-        <v>0.451278</v>
+        <v>0.183275</v>
       </c>
       <c r="I13">
-        <v>0.1662542343845843</v>
+        <v>0.1000276164091682</v>
       </c>
       <c r="J13">
-        <v>0.1662542343845843</v>
+        <v>0.1000276164091682</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>23.77214366666666</v>
+        <v>38.39199066666666</v>
       </c>
       <c r="N13">
-        <v>71.31643099999999</v>
+        <v>115.175972</v>
       </c>
       <c r="O13">
-        <v>0.13512034716481</v>
+        <v>0.1647389374732149</v>
       </c>
       <c r="P13">
-        <v>0.1351203471648099</v>
+        <v>0.1647389374732149</v>
       </c>
       <c r="Q13">
-        <v>3.575948483201999</v>
+        <v>2.345430696477778</v>
       </c>
       <c r="R13">
-        <v>32.183536348818</v>
+        <v>21.1088762683</v>
       </c>
       <c r="S13">
-        <v>0.02246432986766472</v>
+        <v>0.01647844324522469</v>
       </c>
       <c r="T13">
-        <v>0.02246432986766472</v>
+        <v>0.01647844324522469</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,52 +1281,52 @@
         <v>27</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.02364033333333333</v>
+        <v>0.03325033333333333</v>
       </c>
       <c r="H14">
-        <v>0.070921</v>
+        <v>0.09975100000000001</v>
       </c>
       <c r="I14">
-        <v>0.0261278337450288</v>
+        <v>0.05444198480115094</v>
       </c>
       <c r="J14">
-        <v>0.0261278337450288</v>
+        <v>0.05444198480115094</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M14">
-        <v>0.1518936666666667</v>
+        <v>0.8181043333333333</v>
       </c>
       <c r="N14">
-        <v>0.4556810000000001</v>
+        <v>2.454313</v>
       </c>
       <c r="O14">
-        <v>0.0008633602951388269</v>
+        <v>0.003510462371845219</v>
       </c>
       <c r="P14">
-        <v>0.0008633602951388268</v>
+        <v>0.003510462371845219</v>
       </c>
       <c r="Q14">
-        <v>0.003590816911222222</v>
+        <v>0.02720224178477778</v>
       </c>
       <c r="R14">
-        <v>0.032317352201</v>
+        <v>0.244820176063</v>
       </c>
       <c r="S14">
-        <v>2.255773425344627E-05</v>
+        <v>0.0001911165390930097</v>
       </c>
       <c r="T14">
-        <v>2.255773425344626E-05</v>
+        <v>0.0001911165390930097</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,22 +1343,22 @@
         <v>20</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.02364033333333333</v>
+        <v>0.03325033333333333</v>
       </c>
       <c r="H15">
-        <v>0.070921</v>
+        <v>0.09975100000000001</v>
       </c>
       <c r="I15">
-        <v>0.0261278337450288</v>
+        <v>0.05444198480115094</v>
       </c>
       <c r="J15">
-        <v>0.0261278337450288</v>
+        <v>0.05444198480115094</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>6.883193</v>
       </c>
       <c r="O15">
-        <v>0.01304130639631125</v>
+        <v>0.00984519497906274</v>
       </c>
       <c r="P15">
-        <v>0.01304130639631125</v>
+        <v>0.00984519497906274</v>
       </c>
       <c r="Q15">
-        <v>0.05424032563922222</v>
+        <v>0.07628948721588889</v>
       </c>
       <c r="R15">
-        <v>0.488162930753</v>
+        <v>0.6866053849430001</v>
       </c>
       <c r="S15">
-        <v>0.000340741085340801</v>
+        <v>0.0005359919554145013</v>
       </c>
       <c r="T15">
-        <v>0.000340741085340801</v>
+        <v>0.0005359919554145012</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,22 +1405,22 @@
         <v>21</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.02364033333333333</v>
+        <v>0.03325033333333333</v>
       </c>
       <c r="H16">
-        <v>0.070921</v>
+        <v>0.09975100000000001</v>
       </c>
       <c r="I16">
-        <v>0.0261278337450288</v>
+        <v>0.05444198480115094</v>
       </c>
       <c r="J16">
-        <v>0.0261278337450288</v>
+        <v>0.05444198480115094</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>36.15489266666666</v>
+        <v>75.03856666666667</v>
       </c>
       <c r="N16">
-        <v>108.464678</v>
+        <v>225.1157</v>
       </c>
       <c r="O16">
-        <v>0.2055036229516214</v>
+        <v>0.3219883503699801</v>
       </c>
       <c r="P16">
-        <v>0.2055036229516214</v>
+        <v>0.3219883503699801</v>
       </c>
       <c r="Q16">
-        <v>0.8547137142708887</v>
+        <v>2.495057354522222</v>
       </c>
       <c r="R16">
-        <v>7.692423428438</v>
+        <v>22.4555161907</v>
       </c>
       <c r="S16">
-        <v>0.00536936449448105</v>
+        <v>0.01752968487699012</v>
       </c>
       <c r="T16">
-        <v>0.005369364494481049</v>
+        <v>0.01752968487699012</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,22 +1467,22 @@
         <v>22</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>0.02364033333333333</v>
+        <v>0.03325033333333333</v>
       </c>
       <c r="H17">
-        <v>0.070921</v>
+        <v>0.09975100000000001</v>
       </c>
       <c r="I17">
-        <v>0.0261278337450288</v>
+        <v>0.05444198480115094</v>
       </c>
       <c r="J17">
-        <v>0.0261278337450288</v>
+        <v>0.05444198480115094</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.8966460000000001</v>
+        <v>1.172599333333333</v>
       </c>
       <c r="N17">
-        <v>2.689938</v>
+        <v>3.517798</v>
       </c>
       <c r="O17">
-        <v>0.005096516347148873</v>
+        <v>0.005031590310914854</v>
       </c>
       <c r="P17">
-        <v>0.005096516347148872</v>
+        <v>0.005031590310914854</v>
       </c>
       <c r="Q17">
-        <v>0.021197010322</v>
+        <v>0.03898931869977778</v>
       </c>
       <c r="R17">
-        <v>0.190773092898</v>
+        <v>0.350903868298</v>
       </c>
       <c r="S17">
-        <v>0.0001331609317971272</v>
+        <v>0.0002739297632324449</v>
       </c>
       <c r="T17">
-        <v>0.0001331609317971272</v>
+        <v>0.0002739297632324448</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,22 +1529,22 @@
         <v>23</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F18">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G18">
-        <v>0.02364033333333333</v>
+        <v>0.03325033333333333</v>
       </c>
       <c r="H18">
-        <v>0.070921</v>
+        <v>0.09975100000000001</v>
       </c>
       <c r="I18">
-        <v>0.0261278337450288</v>
+        <v>0.05444198480115094</v>
       </c>
       <c r="J18">
-        <v>0.0261278337450288</v>
+        <v>0.05444198480115094</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>112.663142</v>
+        <v>115.3317996666667</v>
       </c>
       <c r="N18">
-        <v>337.989426</v>
+        <v>345.995399</v>
       </c>
       <c r="O18">
-        <v>0.6403748468449697</v>
+        <v>0.4948854644949822</v>
       </c>
       <c r="P18">
-        <v>0.6403748468449696</v>
+        <v>0.4948854644949822</v>
       </c>
       <c r="Q18">
-        <v>2.663394231260666</v>
+        <v>3.834820782849889</v>
       </c>
       <c r="R18">
-        <v>23.970548081346</v>
+        <v>34.513387045649</v>
       </c>
       <c r="S18">
-        <v>0.01673160753286365</v>
+        <v>0.02694254693634634</v>
       </c>
       <c r="T18">
-        <v>0.01673160753286364</v>
+        <v>0.02694254693634634</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,22 +1591,22 @@
         <v>24</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F19">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G19">
-        <v>0.02364033333333333</v>
+        <v>0.03325033333333333</v>
       </c>
       <c r="H19">
-        <v>0.070921</v>
+        <v>0.09975100000000001</v>
       </c>
       <c r="I19">
-        <v>0.0261278337450288</v>
+        <v>0.05444198480115094</v>
       </c>
       <c r="J19">
-        <v>0.0261278337450288</v>
+        <v>0.05444198480115094</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>23.77214366666666</v>
+        <v>38.39199066666666</v>
       </c>
       <c r="N19">
-        <v>71.31643099999999</v>
+        <v>115.175972</v>
       </c>
       <c r="O19">
-        <v>0.13512034716481</v>
+        <v>0.1647389374732149</v>
       </c>
       <c r="P19">
-        <v>0.1351203471648099</v>
+        <v>0.1647389374732149</v>
       </c>
       <c r="Q19">
-        <v>0.5619814003278888</v>
+        <v>1.276546486996889</v>
       </c>
       <c r="R19">
-        <v>5.057832602951</v>
+        <v>11.488918382972</v>
       </c>
       <c r="S19">
-        <v>0.003530401966292729</v>
+        <v>0.008968714730074523</v>
       </c>
       <c r="T19">
-        <v>0.003530401966292728</v>
+        <v>0.008968714730074523</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,46 +1659,46 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.2778663333333333</v>
+        <v>0.4647246666666667</v>
       </c>
       <c r="H20">
-        <v>0.833599</v>
+        <v>1.394174</v>
       </c>
       <c r="I20">
-        <v>0.3071041875047202</v>
+        <v>0.7609106647367928</v>
       </c>
       <c r="J20">
-        <v>0.3071041875047202</v>
+        <v>0.7609106647367926</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M20">
-        <v>0.1518936666666667</v>
+        <v>0.8181043333333333</v>
       </c>
       <c r="N20">
-        <v>0.4556810000000001</v>
+        <v>2.454313</v>
       </c>
       <c r="O20">
-        <v>0.0008633602951388269</v>
+        <v>0.003510462371845219</v>
       </c>
       <c r="P20">
-        <v>0.0008633602951388268</v>
+        <v>0.003510462371845219</v>
       </c>
       <c r="Q20">
-        <v>0.04220613621322222</v>
+        <v>0.3801932636068889</v>
       </c>
       <c r="R20">
-        <v>0.3798552259190001</v>
+        <v>3.421739372462</v>
       </c>
       <c r="S20">
-        <v>0.0002651415619624449</v>
+        <v>0.002671148256894244</v>
       </c>
       <c r="T20">
-        <v>0.0002651415619624448</v>
+        <v>0.002671148256894243</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.2778663333333333</v>
+        <v>0.4647246666666667</v>
       </c>
       <c r="H21">
-        <v>0.833599</v>
+        <v>1.394174</v>
       </c>
       <c r="I21">
-        <v>0.3071041875047202</v>
+        <v>0.7609106647367928</v>
       </c>
       <c r="J21">
-        <v>0.3071041875047202</v>
+        <v>0.7609106647367926</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>6.883193</v>
       </c>
       <c r="O21">
-        <v>0.01304130639631125</v>
+        <v>0.00984519497906274</v>
       </c>
       <c r="P21">
-        <v>0.01304130639631125</v>
+        <v>0.00984519497906274</v>
       </c>
       <c r="Q21">
-        <v>0.6375358668452222</v>
+        <v>1.066263190842444</v>
       </c>
       <c r="R21">
-        <v>5.737822801607</v>
+        <v>9.596368717582001</v>
       </c>
       <c r="S21">
-        <v>0.004005039804839278</v>
+        <v>0.007491313855981964</v>
       </c>
       <c r="T21">
-        <v>0.004005039804839276</v>
+        <v>0.007491313855981963</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>0.2778663333333333</v>
+        <v>0.4647246666666667</v>
       </c>
       <c r="H22">
-        <v>0.833599</v>
+        <v>1.394174</v>
       </c>
       <c r="I22">
-        <v>0.3071041875047202</v>
+        <v>0.7609106647367928</v>
       </c>
       <c r="J22">
-        <v>0.3071041875047202</v>
+        <v>0.7609106647367926</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>36.15489266666666</v>
+        <v>75.03856666666667</v>
       </c>
       <c r="N22">
-        <v>108.464678</v>
+        <v>225.1157</v>
       </c>
       <c r="O22">
-        <v>0.2055036229516214</v>
+        <v>0.3219883503699801</v>
       </c>
       <c r="P22">
-        <v>0.2055036229516214</v>
+        <v>0.3219883503699801</v>
       </c>
       <c r="Q22">
-        <v>10.04622745734689</v>
+        <v>34.87227288131111</v>
       </c>
       <c r="R22">
-        <v>90.41604711612199</v>
+        <v>313.8504559318</v>
       </c>
       <c r="S22">
-        <v>0.06311102315583407</v>
+        <v>0.2450043697175249</v>
       </c>
       <c r="T22">
-        <v>0.06311102315583406</v>
+        <v>0.2450043697175248</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>0.2778663333333333</v>
+        <v>0.4647246666666667</v>
       </c>
       <c r="H23">
-        <v>0.833599</v>
+        <v>1.394174</v>
       </c>
       <c r="I23">
-        <v>0.3071041875047202</v>
+        <v>0.7609106647367928</v>
       </c>
       <c r="J23">
-        <v>0.3071041875047202</v>
+        <v>0.7609106647367926</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>0.8966460000000001</v>
+        <v>1.172599333333333</v>
       </c>
       <c r="N23">
-        <v>2.689938</v>
+        <v>3.517798</v>
       </c>
       <c r="O23">
-        <v>0.005096516347148873</v>
+        <v>0.005031590310914854</v>
       </c>
       <c r="P23">
-        <v>0.005096516347148872</v>
+        <v>0.005031590310914854</v>
       </c>
       <c r="Q23">
-        <v>0.249147736318</v>
+        <v>0.5449358343168889</v>
       </c>
       <c r="R23">
-        <v>2.242329626862</v>
+        <v>4.904422508852</v>
       </c>
       <c r="S23">
-        <v>0.001565161511895679</v>
+        <v>0.003828590728161428</v>
       </c>
       <c r="T23">
-        <v>0.001565161511895679</v>
+        <v>0.003828590728161427</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>0.2778663333333333</v>
+        <v>0.4647246666666667</v>
       </c>
       <c r="H24">
-        <v>0.833599</v>
+        <v>1.394174</v>
       </c>
       <c r="I24">
-        <v>0.3071041875047202</v>
+        <v>0.7609106647367928</v>
       </c>
       <c r="J24">
-        <v>0.3071041875047202</v>
+        <v>0.7609106647367926</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>112.663142</v>
+        <v>115.3317996666667</v>
       </c>
       <c r="N24">
-        <v>337.989426</v>
+        <v>345.995399</v>
       </c>
       <c r="O24">
-        <v>0.6403748468449697</v>
+        <v>0.4948854644949822</v>
       </c>
       <c r="P24">
-        <v>0.6403748468449696</v>
+        <v>0.4948854644949822</v>
       </c>
       <c r="Q24">
-        <v>31.30529416935266</v>
+        <v>53.59753215615844</v>
       </c>
       <c r="R24">
-        <v>281.747647524174</v>
+        <v>482.377789405426</v>
       </c>
       <c r="S24">
-        <v>0.1966617970387841</v>
+        <v>0.3765636277574533</v>
       </c>
       <c r="T24">
-        <v>0.196661797038784</v>
+        <v>0.3765636277574532</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>0.2778663333333333</v>
+        <v>0.4647246666666667</v>
       </c>
       <c r="H25">
-        <v>0.833599</v>
+        <v>1.394174</v>
       </c>
       <c r="I25">
-        <v>0.3071041875047202</v>
+        <v>0.7609106647367928</v>
       </c>
       <c r="J25">
-        <v>0.3071041875047202</v>
+        <v>0.7609106647367926</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>23.77214366666666</v>
+        <v>38.39199066666666</v>
       </c>
       <c r="N25">
-        <v>71.31643099999999</v>
+        <v>115.175972</v>
       </c>
       <c r="O25">
-        <v>0.13512034716481</v>
+        <v>0.1647389374732149</v>
       </c>
       <c r="P25">
-        <v>0.1351203471648099</v>
+        <v>0.1647389374732149</v>
       </c>
       <c r="Q25">
-        <v>6.605478396129889</v>
+        <v>17.84170506523644</v>
       </c>
       <c r="R25">
-        <v>59.44930556516899</v>
+        <v>160.575345587128</v>
       </c>
       <c r="S25">
-        <v>0.0414960244314047</v>
+        <v>0.1253516144207769</v>
       </c>
       <c r="T25">
-        <v>0.04149602443140468</v>
+        <v>0.1253516144207769</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,46 +2031,46 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>0.4352673333333333</v>
+        <v>0.03408633333333334</v>
       </c>
       <c r="H26">
-        <v>1.305802</v>
+        <v>0.102259</v>
       </c>
       <c r="I26">
-        <v>0.481067350431129</v>
+        <v>0.05581079812514055</v>
       </c>
       <c r="J26">
-        <v>0.4810673504311289</v>
+        <v>0.05581079812514053</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L26">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M26">
-        <v>0.1518936666666667</v>
+        <v>0.8181043333333333</v>
       </c>
       <c r="N26">
-        <v>0.4556810000000001</v>
+        <v>2.454313</v>
       </c>
       <c r="O26">
-        <v>0.0008633602951388269</v>
+        <v>0.003510462371845219</v>
       </c>
       <c r="P26">
-        <v>0.0008633602951388268</v>
+        <v>0.003510462371845219</v>
       </c>
       <c r="Q26">
-        <v>0.06611435124022222</v>
+        <v>0.02788617700744445</v>
       </c>
       <c r="R26">
-        <v>0.595029161162</v>
+        <v>0.250975593067</v>
       </c>
       <c r="S26">
-        <v>0.000415334449649873</v>
+        <v>0.0001959217067609556</v>
       </c>
       <c r="T26">
-        <v>0.0004153344496498728</v>
+        <v>0.0001959217067609556</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>0.4352673333333333</v>
+        <v>0.03408633333333334</v>
       </c>
       <c r="H27">
-        <v>1.305802</v>
+        <v>0.102259</v>
       </c>
       <c r="I27">
-        <v>0.481067350431129</v>
+        <v>0.05581079812514055</v>
       </c>
       <c r="J27">
-        <v>0.4810673504311289</v>
+        <v>0.05581079812514053</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>6.883193</v>
       </c>
       <c r="O27">
-        <v>0.01304130639631125</v>
+        <v>0.00984519497906274</v>
       </c>
       <c r="P27">
-        <v>0.01304130639631125</v>
+        <v>0.00984519497906274</v>
       </c>
       <c r="Q27">
-        <v>0.9986763539762221</v>
+        <v>0.07820760366522224</v>
       </c>
       <c r="R27">
-        <v>8.988087185786</v>
+        <v>0.7038684329870001</v>
       </c>
       <c r="S27">
-        <v>0.006273746714233988</v>
+        <v>0.0005494681894791179</v>
       </c>
       <c r="T27">
-        <v>0.006273746714233986</v>
+        <v>0.0005494681894791177</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>0.4352673333333333</v>
+        <v>0.03408633333333334</v>
       </c>
       <c r="H28">
-        <v>1.305802</v>
+        <v>0.102259</v>
       </c>
       <c r="I28">
-        <v>0.481067350431129</v>
+        <v>0.05581079812514055</v>
       </c>
       <c r="J28">
-        <v>0.4810673504311289</v>
+        <v>0.05581079812514053</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>36.15489266666666</v>
+        <v>75.03856666666667</v>
       </c>
       <c r="N28">
-        <v>108.464678</v>
+        <v>225.1157</v>
       </c>
       <c r="O28">
-        <v>0.2055036229516214</v>
+        <v>0.3219883503699801</v>
       </c>
       <c r="P28">
-        <v>0.2055036229516214</v>
+        <v>0.3219883503699801</v>
       </c>
       <c r="Q28">
-        <v>15.73704371797288</v>
+        <v>2.557789596255556</v>
       </c>
       <c r="R28">
-        <v>141.633393461756</v>
+        <v>23.0201063663</v>
       </c>
       <c r="S28">
-        <v>0.09886108339733427</v>
+        <v>0.01797042682114598</v>
       </c>
       <c r="T28">
-        <v>0.09886108339733425</v>
+        <v>0.01797042682114598</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>0.4352673333333333</v>
+        <v>0.03408633333333334</v>
       </c>
       <c r="H29">
-        <v>1.305802</v>
+        <v>0.102259</v>
       </c>
       <c r="I29">
-        <v>0.481067350431129</v>
+        <v>0.05581079812514055</v>
       </c>
       <c r="J29">
-        <v>0.4810673504311289</v>
+        <v>0.05581079812514053</v>
       </c>
       <c r="K29">
         <v>3</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>0.8966460000000001</v>
+        <v>1.172599333333333</v>
       </c>
       <c r="N29">
-        <v>2.689938</v>
+        <v>3.517798</v>
       </c>
       <c r="O29">
-        <v>0.005096516347148873</v>
+        <v>0.005031590310914854</v>
       </c>
       <c r="P29">
-        <v>0.005096516347148872</v>
+        <v>0.005031590310914854</v>
       </c>
       <c r="Q29">
-        <v>0.390280713364</v>
+        <v>0.03996961174244445</v>
       </c>
       <c r="R29">
-        <v>3.512526420276</v>
+        <v>0.359726505682</v>
       </c>
       <c r="S29">
-        <v>0.002451767615551844</v>
+        <v>0.0002808170710908821</v>
       </c>
       <c r="T29">
-        <v>0.002451767615551844</v>
+        <v>0.000280817071090882</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>0.4352673333333333</v>
+        <v>0.03408633333333334</v>
       </c>
       <c r="H30">
-        <v>1.305802</v>
+        <v>0.102259</v>
       </c>
       <c r="I30">
-        <v>0.481067350431129</v>
+        <v>0.05581079812514055</v>
       </c>
       <c r="J30">
-        <v>0.4810673504311289</v>
+        <v>0.05581079812514053</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>112.663142</v>
+        <v>115.3317996666667</v>
       </c>
       <c r="N30">
-        <v>337.989426</v>
+        <v>345.995399</v>
       </c>
       <c r="O30">
-        <v>0.6403748468449697</v>
+        <v>0.4948854644949822</v>
       </c>
       <c r="P30">
-        <v>0.6403748468449696</v>
+        <v>0.4948854644949822</v>
       </c>
       <c r="Q30">
-        <v>49.03858538329466</v>
+        <v>3.931238167371223</v>
       </c>
       <c r="R30">
-        <v>441.3472684496519</v>
+        <v>35.381143506341</v>
       </c>
       <c r="S30">
-        <v>0.3080634308544496</v>
+        <v>0.02761995275399586</v>
       </c>
       <c r="T30">
-        <v>0.3080634308544495</v>
+        <v>0.02761995275399585</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>0.4352673333333333</v>
+        <v>0.03408633333333334</v>
       </c>
       <c r="H31">
-        <v>1.305802</v>
+        <v>0.102259</v>
       </c>
       <c r="I31">
-        <v>0.481067350431129</v>
+        <v>0.05581079812514055</v>
       </c>
       <c r="J31">
-        <v>0.4810673504311289</v>
+        <v>0.05581079812514053</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>23.77214366666666</v>
+        <v>38.39199066666666</v>
       </c>
       <c r="N31">
-        <v>71.31643099999999</v>
+        <v>115.175972</v>
       </c>
       <c r="O31">
-        <v>0.13512034716481</v>
+        <v>0.1647389374732149</v>
       </c>
       <c r="P31">
-        <v>0.1351203471648099</v>
+        <v>0.1647389374732149</v>
       </c>
       <c r="Q31">
-        <v>10.34723758140689</v>
+        <v>1.308642191194222</v>
       </c>
       <c r="R31">
-        <v>93.12513823266198</v>
+        <v>11.777779720748</v>
       </c>
       <c r="S31">
-        <v>0.06500198739990945</v>
+        <v>0.00919421158266775</v>
       </c>
       <c r="T31">
-        <v>0.06500198739990942</v>
+        <v>0.009194211582667748</v>
       </c>
     </row>
   </sheetData>
